--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_errors_T55_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_errors_T55_since_2021.xlsx
@@ -501,34 +501,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.58442257821662</v>
+        <v>1.56314828978338</v>
       </c>
       <c r="C2">
-        <v>1.56314828978338</v>
+        <v>-1.87688157821662</v>
       </c>
       <c r="D2">
-        <v>-1.87688157821662</v>
+        <v>-1.93805557821662</v>
       </c>
       <c r="E2">
-        <v>-1.93805557821662</v>
+        <v>0.10340042178338</v>
       </c>
       <c r="F2">
-        <v>0.10340042178338</v>
+        <v>-0.47919457821662</v>
       </c>
       <c r="G2">
-        <v>-0.47919457821662</v>
+        <v>-0.38351943421662</v>
       </c>
       <c r="H2">
-        <v>-0.38351943421662</v>
+        <v>-0.64393857821662</v>
       </c>
       <c r="I2">
-        <v>-0.64393857821662</v>
+        <v>0.19151642178338</v>
       </c>
       <c r="J2">
-        <v>0.19151642178338</v>
+        <v>0.09144346878338</v>
       </c>
       <c r="K2">
-        <v>0.09144346878338</v>
+        <v>-0.26234957821662</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,34 +536,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1.454533757567239</v>
+        <v>-1.985496110432761</v>
       </c>
       <c r="C3">
-        <v>-1.985496110432761</v>
+        <v>-2.046670110432761</v>
       </c>
       <c r="D3">
-        <v>-2.046670110432761</v>
+        <v>-0.005214110432760821</v>
       </c>
       <c r="E3">
-        <v>-0.005214110432760821</v>
+        <v>-0.5878091104327609</v>
       </c>
       <c r="F3">
-        <v>-0.5878091104327609</v>
+        <v>-0.4921339664327609</v>
       </c>
       <c r="G3">
-        <v>-0.4921339664327609</v>
+        <v>-0.7525531104327607</v>
       </c>
       <c r="H3">
-        <v>-0.7525531104327607</v>
+        <v>0.08290188956723921</v>
       </c>
       <c r="I3">
-        <v>0.08290188956723921</v>
+        <v>-0.01717106343276081</v>
       </c>
       <c r="J3">
-        <v>-0.01717106343276081</v>
+        <v>-0.3709641104327608</v>
       </c>
       <c r="K3">
-        <v>-0.3709641104327608</v>
+        <v>-0.2227861104327608</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,34 +571,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1.777394389465022</v>
+        <v>-1.838568389465022</v>
       </c>
       <c r="C4">
-        <v>-1.838568389465022</v>
+        <v>0.2028876105349782</v>
       </c>
       <c r="D4">
-        <v>0.2028876105349782</v>
+        <v>-0.3797073894650218</v>
       </c>
       <c r="E4">
-        <v>-0.3797073894650218</v>
+        <v>-0.2840322454650218</v>
       </c>
       <c r="F4">
-        <v>-0.2840322454650218</v>
+        <v>-0.5444513894650218</v>
       </c>
       <c r="G4">
-        <v>-0.5444513894650218</v>
+        <v>0.2910036105349783</v>
       </c>
       <c r="H4">
-        <v>0.2910036105349783</v>
+        <v>0.1909306575349782</v>
       </c>
       <c r="I4">
-        <v>0.1909306575349782</v>
+        <v>-0.1628623894650218</v>
       </c>
       <c r="J4">
-        <v>-0.1628623894650218</v>
+        <v>-0.01468438946502179</v>
       </c>
       <c r="K4">
-        <v>-0.01468438946502179</v>
+        <v>0.1427616105349782</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,34 +606,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1.722070219091221</v>
+        <v>0.3193857809087786</v>
       </c>
       <c r="C5">
-        <v>0.3193857809087786</v>
+        <v>-0.2632092190912214</v>
       </c>
       <c r="D5">
-        <v>-0.2632092190912214</v>
+        <v>-0.1675340750912214</v>
       </c>
       <c r="E5">
-        <v>-0.1675340750912214</v>
+        <v>-0.4279532190912214</v>
       </c>
       <c r="F5">
-        <v>-0.4279532190912214</v>
+        <v>0.4075017809087786</v>
       </c>
       <c r="G5">
-        <v>0.4075017809087786</v>
+        <v>0.3074288279087786</v>
       </c>
       <c r="H5">
-        <v>0.3074288279087786</v>
+        <v>-0.04636421909122137</v>
       </c>
       <c r="I5">
-        <v>-0.04636421909122137</v>
+        <v>0.1018137809087786</v>
       </c>
       <c r="J5">
-        <v>0.1018137809087786</v>
+        <v>0.2592597809087786</v>
       </c>
       <c r="K5">
-        <v>0.2592597809087786</v>
+        <v>-0.2414032190912214</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,34 +641,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.3648791949059138</v>
+        <v>-0.2177158050940863</v>
       </c>
       <c r="C6">
-        <v>-0.2177158050940863</v>
+        <v>-0.1220406610940863</v>
       </c>
       <c r="D6">
-        <v>-0.1220406610940863</v>
+        <v>-0.3824598050940862</v>
       </c>
       <c r="E6">
-        <v>-0.3824598050940862</v>
+        <v>0.4529951949059138</v>
       </c>
       <c r="F6">
-        <v>0.4529951949059138</v>
+        <v>0.3529222419059138</v>
       </c>
       <c r="G6">
-        <v>0.3529222419059138</v>
+        <v>-0.0008708050940862688</v>
       </c>
       <c r="H6">
-        <v>-0.0008708050940862688</v>
+        <v>0.1473071949059137</v>
       </c>
       <c r="I6">
-        <v>0.1473071949059137</v>
+        <v>0.3047531949059137</v>
       </c>
       <c r="J6">
-        <v>0.3047531949059137</v>
+        <v>-0.1959098050940863</v>
       </c>
       <c r="K6">
-        <v>-0.1959098050940863</v>
+        <v>0.08445119490591374</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,34 +676,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.2352699264540507</v>
+        <v>-0.1395947824540507</v>
       </c>
       <c r="C7">
-        <v>-0.1395947824540507</v>
+        <v>-0.4000139264540507</v>
       </c>
       <c r="D7">
-        <v>-0.4000139264540507</v>
+        <v>0.4354410735459493</v>
       </c>
       <c r="E7">
-        <v>0.4354410735459493</v>
+        <v>0.3353681205459493</v>
       </c>
       <c r="F7">
-        <v>0.3353681205459493</v>
+        <v>-0.01842492645405072</v>
       </c>
       <c r="G7">
-        <v>-0.01842492645405072</v>
+        <v>0.1297530735459493</v>
       </c>
       <c r="H7">
-        <v>0.1297530735459493</v>
+        <v>0.2871990735459493</v>
       </c>
       <c r="I7">
-        <v>0.2871990735459493</v>
+        <v>-0.2134639264540507</v>
       </c>
       <c r="J7">
-        <v>-0.2134639264540507</v>
+        <v>0.06689707354594927</v>
       </c>
       <c r="K7">
-        <v>0.06689707354594927</v>
+        <v>-0.1050779264540507</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,34 +711,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.05148746350304451</v>
+        <v>-0.3119066075030444</v>
       </c>
       <c r="C8">
-        <v>-0.3119066075030444</v>
+        <v>0.5235483924969555</v>
       </c>
       <c r="D8">
-        <v>0.5235483924969555</v>
+        <v>0.4234754394969555</v>
       </c>
       <c r="E8">
-        <v>0.4234754394969555</v>
+        <v>0.06968239249695551</v>
       </c>
       <c r="F8">
-        <v>0.06968239249695551</v>
+        <v>0.2178603924969555</v>
       </c>
       <c r="G8">
-        <v>0.2178603924969555</v>
+        <v>0.3753063924969555</v>
       </c>
       <c r="H8">
-        <v>0.3753063924969555</v>
+        <v>-0.1253566075030445</v>
       </c>
       <c r="I8">
-        <v>-0.1253566075030445</v>
+        <v>0.1550043924969555</v>
       </c>
       <c r="J8">
-        <v>0.1550043924969555</v>
+        <v>-0.01697060750304449</v>
       </c>
       <c r="K8">
-        <v>-0.01697060750304449</v>
+        <v>0.2888923924969555</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,34 +746,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.1333319740152609</v>
+        <v>0.7021230259847391</v>
       </c>
       <c r="C9">
-        <v>0.7021230259847391</v>
+        <v>0.6020500729847391</v>
       </c>
       <c r="D9">
-        <v>0.6020500729847391</v>
+        <v>0.2482570259847391</v>
       </c>
       <c r="E9">
-        <v>0.2482570259847391</v>
+        <v>0.3964350259847391</v>
       </c>
       <c r="F9">
-        <v>0.3964350259847391</v>
+        <v>0.5538810259847391</v>
       </c>
       <c r="G9">
-        <v>0.5538810259847391</v>
+        <v>0.0532180259847391</v>
       </c>
       <c r="H9">
-        <v>0.0532180259847391</v>
+        <v>0.3335790259847391</v>
       </c>
       <c r="I9">
-        <v>0.3335790259847391</v>
+        <v>0.1616040259847391</v>
       </c>
       <c r="J9">
-        <v>0.1616040259847391</v>
+        <v>0.4674670259847391</v>
       </c>
       <c r="K9">
-        <v>0.4674670259847391</v>
+        <v>-0.1448629740152609</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,34 +781,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1.614150253737389</v>
+        <v>1.514077300737389</v>
       </c>
       <c r="C10">
-        <v>1.514077300737389</v>
+        <v>1.160284253737389</v>
       </c>
       <c r="D10">
-        <v>1.160284253737389</v>
+        <v>1.308462253737389</v>
       </c>
       <c r="E10">
-        <v>1.308462253737389</v>
+        <v>1.465908253737389</v>
       </c>
       <c r="F10">
-        <v>1.465908253737389</v>
+        <v>0.9652452537373891</v>
       </c>
       <c r="G10">
-        <v>0.9652452537373891</v>
+        <v>1.245606253737389</v>
       </c>
       <c r="H10">
-        <v>1.245606253737389</v>
+        <v>1.073631253737389</v>
       </c>
       <c r="I10">
-        <v>1.073631253737389</v>
+        <v>1.379494253737389</v>
       </c>
       <c r="J10">
-        <v>1.379494253737389</v>
+        <v>0.7671642537373891</v>
       </c>
       <c r="K10">
-        <v>0.7671642537373891</v>
+        <v>1.455535253737389</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,33 +816,30 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.5701030647716323</v>
+        <v>0.2163100177716323</v>
       </c>
       <c r="C11">
-        <v>0.2163100177716323</v>
+        <v>0.3644880177716323</v>
       </c>
       <c r="D11">
-        <v>0.3644880177716323</v>
+        <v>0.5219340177716323</v>
       </c>
       <c r="E11">
-        <v>0.5219340177716323</v>
+        <v>0.02127101777163229</v>
       </c>
       <c r="F11">
-        <v>0.02127101777163229</v>
+        <v>0.3016320177716323</v>
       </c>
       <c r="G11">
-        <v>0.3016320177716323</v>
+        <v>0.1296570177716323</v>
       </c>
       <c r="H11">
-        <v>0.1296570177716323</v>
+        <v>0.4355200177716323</v>
       </c>
       <c r="I11">
-        <v>0.4355200177716323</v>
+        <v>-0.1768099822283677</v>
       </c>
       <c r="J11">
-        <v>-0.1768099822283677</v>
-      </c>
-      <c r="K11">
         <v>0.5115610177716323</v>
       </c>
     </row>
@@ -851,30 +848,27 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.2202779152847414</v>
+        <v>0.3684559152847414</v>
       </c>
       <c r="C12">
-        <v>0.3684559152847414</v>
+        <v>0.5259019152847414</v>
       </c>
       <c r="D12">
-        <v>0.5259019152847414</v>
+        <v>0.0252389152847414</v>
       </c>
       <c r="E12">
-        <v>0.0252389152847414</v>
+        <v>0.3055999152847414</v>
       </c>
       <c r="F12">
-        <v>0.3055999152847414</v>
+        <v>0.1336249152847414</v>
       </c>
       <c r="G12">
-        <v>0.1336249152847414</v>
+        <v>0.4394879152847414</v>
       </c>
       <c r="H12">
-        <v>0.4394879152847414</v>
+        <v>-0.1728420847152586</v>
       </c>
       <c r="I12">
-        <v>-0.1728420847152586</v>
-      </c>
-      <c r="J12">
         <v>0.5155289152847414</v>
       </c>
     </row>
@@ -883,27 +877,24 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.5040960054549828</v>
+        <v>0.6615420054549828</v>
       </c>
       <c r="C13">
-        <v>0.6615420054549828</v>
+        <v>0.1608790054549828</v>
       </c>
       <c r="D13">
-        <v>0.1608790054549828</v>
+        <v>0.4412400054549828</v>
       </c>
       <c r="E13">
-        <v>0.4412400054549828</v>
+        <v>0.2692650054549828</v>
       </c>
       <c r="F13">
-        <v>0.2692650054549828</v>
+        <v>0.5751280054549828</v>
       </c>
       <c r="G13">
-        <v>0.5751280054549828</v>
+        <v>-0.03720199454501721</v>
       </c>
       <c r="H13">
-        <v>-0.03720199454501721</v>
-      </c>
-      <c r="I13">
         <v>0.6511690054549828</v>
       </c>
     </row>
@@ -912,24 +903,21 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.420735823599318</v>
+        <v>-0.07992717640068192</v>
       </c>
       <c r="C14">
-        <v>-0.07992717640068192</v>
+        <v>0.2004338235993181</v>
       </c>
       <c r="D14">
-        <v>0.2004338235993181</v>
+        <v>0.02845882359931809</v>
       </c>
       <c r="E14">
-        <v>0.02845882359931809</v>
+        <v>0.3343218235993181</v>
       </c>
       <c r="F14">
-        <v>0.3343218235993181</v>
+        <v>-0.2780081764006819</v>
       </c>
       <c r="G14">
-        <v>-0.2780081764006819</v>
-      </c>
-      <c r="H14">
         <v>0.4103628235993181</v>
       </c>
     </row>
@@ -938,21 +926,18 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.1252583916527783</v>
+        <v>0.1551026083472217</v>
       </c>
       <c r="C15">
-        <v>0.1551026083472217</v>
+        <v>-0.01687239165277828</v>
       </c>
       <c r="D15">
-        <v>-0.01687239165277828</v>
+        <v>0.2889906083472217</v>
       </c>
       <c r="E15">
-        <v>0.2889906083472217</v>
+        <v>-0.3233393916527783</v>
       </c>
       <c r="F15">
-        <v>-0.3233393916527783</v>
-      </c>
-      <c r="G15">
         <v>0.3650316083472218</v>
       </c>
     </row>
@@ -961,69 +946,54 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.08824118641116785</v>
+        <v>-0.08373381358883215</v>
       </c>
       <c r="C16">
-        <v>-0.08373381358883215</v>
+        <v>0.2221291864111679</v>
       </c>
       <c r="D16">
-        <v>0.2221291864111679</v>
+        <v>-0.3902008135888321</v>
       </c>
       <c r="E16">
-        <v>-0.3902008135888321</v>
-      </c>
-      <c r="F16">
         <v>0.2981701864111679</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.1133200159455487</v>
+        <v>0.1925429840544512</v>
       </c>
       <c r="C17">
-        <v>0.1925429840544512</v>
+        <v>-0.4197870159455487</v>
       </c>
       <c r="D17">
-        <v>-0.4197870159455487</v>
-      </c>
-      <c r="E17">
         <v>0.2685839840544513</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.1743923273248104</v>
+        <v>-0.4379376726751896</v>
       </c>
       <c r="C18">
-        <v>-0.4379376726751896</v>
-      </c>
-      <c r="D18">
         <v>0.2504333273248104</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.4559694969238889</v>
-      </c>
-      <c r="C19">
         <v>0.2324015030761111</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B20">
-        <v>0.1808172637304477</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_errors_T55_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_errors_T55_since_2021.xlsx
@@ -501,34 +501,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.58442257821662</v>
+      </c>
+      <c r="C2">
         <v>1.56314828978338</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-1.87688157821662</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-1.93805557821662</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.10340042178338</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.47919457821662</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.38351943421662</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.64393857821662</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.19151642178338</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.09144346878338</v>
-      </c>
-      <c r="K2">
-        <v>-0.26234957821662</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,34 +536,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>1.454533757567239</v>
+      </c>
+      <c r="C3">
         <v>-1.985496110432761</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-2.046670110432761</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.005214110432760821</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.5878091104327609</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.4921339664327609</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.7525531104327607</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.08290188956723921</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.01717106343276081</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.3709641104327608</v>
-      </c>
-      <c r="K3">
-        <v>-0.2227861104327608</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,34 +571,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-1.777394389465022</v>
+      </c>
+      <c r="C4">
         <v>-1.838568389465022</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.2028876105349782</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-0.3797073894650218</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-0.2840322454650218</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.5444513894650218</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.2910036105349783</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.1909306575349782</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-0.1628623894650218</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.01468438946502179</v>
-      </c>
-      <c r="K4">
-        <v>0.1427616105349782</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,34 +606,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-1.722070219091221</v>
+      </c>
+      <c r="C5">
         <v>0.3193857809087786</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-0.2632092190912214</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-0.1675340750912214</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.4279532190912214</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.4075017809087786</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.3074288279087786</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.04636421909122137</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.1018137809087786</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.2592597809087786</v>
-      </c>
-      <c r="K5">
-        <v>-0.2414032190912214</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,34 +641,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.3648791949059138</v>
+      </c>
+      <c r="C6">
         <v>-0.2177158050940863</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.1220406610940863</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.3824598050940862</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.4529951949059138</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.3529222419059138</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.0008708050940862688</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.1473071949059137</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.3047531949059137</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.1959098050940863</v>
-      </c>
-      <c r="K6">
-        <v>0.08445119490591374</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,34 +676,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-0.2352699264540507</v>
+      </c>
+      <c r="C7">
         <v>-0.1395947824540507</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.4000139264540507</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.4354410735459493</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3353681205459493</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.01842492645405072</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.1297530735459493</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.2871990735459493</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.2134639264540507</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.06689707354594927</v>
-      </c>
-      <c r="K7">
-        <v>-0.1050779264540507</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,34 +711,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.05148746350304451</v>
+      </c>
+      <c r="C8">
         <v>-0.3119066075030444</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.5235483924969555</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.4234754394969555</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.06968239249695551</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.2178603924969555</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.3753063924969555</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.1253566075030445</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.1550043924969555</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.01697060750304449</v>
-      </c>
-      <c r="K8">
-        <v>0.2888923924969555</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,34 +746,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>-0.1333319740152609</v>
+      </c>
+      <c r="C9">
         <v>0.7021230259847391</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.6020500729847391</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.2482570259847391</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.3964350259847391</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.5538810259847391</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.0532180259847391</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.3335790259847391</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.1616040259847391</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.4674670259847391</v>
-      </c>
-      <c r="K9">
-        <v>-0.1448629740152609</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,34 +781,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>1.614150253737389</v>
+      </c>
+      <c r="C10">
         <v>1.514077300737389</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.160284253737389</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.308462253737389</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.465908253737389</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.9652452537373891</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.245606253737389</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.073631253737389</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.379494253737389</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.7671642537373891</v>
-      </c>
-      <c r="K10">
-        <v>1.455535253737389</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,30 +816,33 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.5701030647716323</v>
+      </c>
+      <c r="C11">
         <v>0.2163100177716323</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.3644880177716323</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.5219340177716323</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.02127101777163229</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.3016320177716323</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.1296570177716323</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.4355200177716323</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.1768099822283677</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.5115610177716323</v>
       </c>
     </row>
@@ -848,27 +851,30 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.2202779152847414</v>
+      </c>
+      <c r="C12">
         <v>0.3684559152847414</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.5259019152847414</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.0252389152847414</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.3055999152847414</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.1336249152847414</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.4394879152847414</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.1728420847152586</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.5155289152847414</v>
       </c>
     </row>
@@ -877,24 +883,27 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.5040960054549828</v>
+      </c>
+      <c r="C13">
         <v>0.6615420054549828</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.1608790054549828</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.4412400054549828</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.2692650054549828</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.5751280054549828</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.03720199454501721</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.6511690054549828</v>
       </c>
     </row>
@@ -903,21 +912,24 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>0.420735823599318</v>
+      </c>
+      <c r="C14">
         <v>-0.07992717640068192</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.2004338235993181</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.02845882359931809</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.3343218235993181</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.2780081764006819</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.4103628235993181</v>
       </c>
     </row>
@@ -926,18 +938,21 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.1252583916527783</v>
+      </c>
+      <c r="C15">
         <v>0.1551026083472217</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.01687239165277828</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.2889906083472217</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.3233393916527783</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.3650316083472218</v>
       </c>
     </row>
@@ -946,54 +961,69 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>0.08824118641116785</v>
+      </c>
+      <c r="C16">
         <v>-0.08373381358883215</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.2221291864111679</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.3902008135888321</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.2981701864111679</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
+        <v>-0.1133200159455487</v>
+      </c>
+      <c r="C17">
         <v>0.1925429840544512</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.4197870159455487</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.2685839840544513</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
+        <v>0.1743923273248104</v>
+      </c>
+      <c r="C18">
         <v>-0.4379376726751896</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.2504333273248104</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
+        <v>-0.4559694969238889</v>
+      </c>
+      <c r="C19">
         <v>0.2324015030761111</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.1808172637304477</v>
       </c>
     </row>
   </sheetData>
